--- a/medicine/Soins infirmiers et profession infirmière/Hôpital_Saint-Jacques_(Besançon)/Hôpital_Saint-Jacques_(Besançon).xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Hôpital_Saint-Jacques_(Besançon)/Hôpital_Saint-Jacques_(Besançon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Saint-Jacques_(Besan%C3%A7on)</t>
+          <t>Hôpital_Saint-Jacques_(Besançon)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital Saint-Jacques de Besançon est un hôpital de style classique du XVIIe siècle.
 Il bénéficie de multiples protections au titre des monuments historiques :
-l'hôpital, à l'exception des parties classées fait l’objet d’une inscription depuis le 27 décembre 1938[1] ;
-les façades et toitures sur la cour d'honneur des bâtiments de l'Hôpital, la chapelle, ainsi que les façades curvilignes et les toitures correspondantes des deux bâtiments adjacents font l’objet d’un classement depuis le 16 juin 1970[1] ;
-le bloc opératoire Saint-Joseph a fait l'objet d'une inscription par arrêté du 23 avril 2012[2].
+l'hôpital, à l'exception des parties classées fait l’objet d’une inscription depuis le 27 décembre 1938 ;
+les façades et toitures sur la cour d'honneur des bâtiments de l'Hôpital, la chapelle, ainsi que les façades curvilignes et les toitures correspondantes des deux bâtiments adjacents font l’objet d’un classement depuis le 16 juin 1970 ;
+le bloc opératoire Saint-Joseph a fait l'objet d'une inscription par arrêté du 23 avril 2012.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Saint-Jacques_(Besan%C3%A7on)</t>
+          <t>Hôpital_Saint-Jacques_(Besançon)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,11 +527,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1182 les chanoines du chapitre de l’église collégiale de Sainte-Madeleine décident de créer l'hôpital Saint-Jacques-des-Arènes à Besançon avec quatorze lits (adjointe à l'église Sainte-Madeleine et greffée sur les ruines des Arènes de Besançon) avec l'accord du pape Lucius III pour « construire une maison hospitalière en vue de l’accueil des pèlerins qui se rendent au pèlerinage de Rome, de Saint-Jacques-de-Compostelle et de Jérusalem »
 En 1436 l'hôpital est rattaché à l'Ordre des hospitaliers du Saint-Esprit pour secourir les pauvres, les malades et les enfants perdus.
-Au XVe siècle, l’hôpital est annexé à celui du Saint Esprit de Besançon. Il ne dispose alors que de 6 lits[3]. En 1667, arrivent 2 religieuses de l’Ordre hospitalier de Sainte-Marthe de Beaune qui vont créer une communauté de sœurs hospitalières[4].
+Au XVe siècle, l’hôpital est annexé à celui du Saint Esprit de Besançon. Il ne dispose alors que de 6 lits. En 1667, arrivent 2 religieuses de l’Ordre hospitalier de Sainte-Marthe de Beaune qui vont créer une communauté de sœurs hospitalières.
 En 1686 l'archevêque de Besançon Antoine-Pierre de Grammont demande la construction d'un nouvel hôpital Saint-Jacques plus important près de l'actuelle promenade Chamars. Les travaux durent de 1686 à 1703 suivant un plan en « U ». Il devient par lettre patente du roi Louis XIV, un hôpital général. À la fin des travaux, Besançon possède l'un des plus beaux hôpitaux du royaume.
 L’hôpital Saint-Jacques fut jusqu’en 1956 la maison-mère des sœurs hospitalières de l’Ordre de Notre-Dame-des-Sept-Douleurs, issues des hospices de Beaune.
 La « chapelle du couvent du Refuge » est érigée au XVIIIe siècle par l'architecte Nicolas Nicole à la manière de la chapelle du collège des Quatre-Nations à Paris (actuel Institut de France). Elle accueille à l'origine des jeunes femmes en difficultés.
@@ -527,7 +541,7 @@
 La grille en ferronnerie est réalisée par le serrurier Nicolas Chappuis en 1703 (remplacée depuis par une copie, l'originale étant stockée à la Citadelle dans le hangar aux palissades du front Saint-Étienne). On peut y lire une inscription latine au-dessus de la porte tirée du psaume X, 14 : « Tibi derelictus est pauper. Orphano tu eris adjutor » (« c’est à toi qu’est abandonné le pauvre. Tu seras le secours de l’orphelin »).
 Un buste en bronze d'Anne Biget (sœur Marthe) dévouée toute sa vie aux malades et prisonniers amenés à Besançon par les guerres de la Révolution et de l’Empire dont les mérites furent reconnus par l’Europe entière est placé dans une niche entre les grilles et la porte. Elle fut décorée par l’empereur d’Autriche, le roi de Prusse, l’empereur de Russie et le roi Louis XVIII.
 Dans la cour d’honneur veille une grande statue de saint Jacques en pierre du XVIIIe siècle.
-À la fin du XIXe siècle les jardins sont principalement potagers[5].
+À la fin du XIXe siècle les jardins sont principalement potagers.
 </t>
         </is>
       </c>
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Saint-Jacques_(Besan%C3%A7on)</t>
+          <t>Hôpital_Saint-Jacques_(Besançon)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +570,9 @@
           <t>Liste des services et des activités du CHU Saint-Jacques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet hôpital public fait partie du centre hospitalier régional universitaire de Besançon (CHRU). S'y trouvent de part et d'autre de la place Saint-Jacques des services hospitaliers et des structures de direction ou de soutien logistique divers. Une vaste opération de regroupement de l'activité sur le site de Chateaufarine a eu lieu fin 2012, en extension de l'hôpital Jean-Minjoz. L'hôpital, propriétaire de l'ensemble immobilier cédera alors au plus offrant les bâtiments du centre-ville.
 Demeurent au centre-ville : les hospitalisations de psychiatrie, la médecine légale, le centre de ressource sur l'autisme, l’accueil adolescent,
